--- a/5 改版后自动化网页提交/5.10/京瓷型号表.xlsx
+++ b/5 改版后自动化网页提交/5.10/京瓷型号表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Maldives\5 改版后自动化网页提交\5.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GiHub\Maldives\5 改版后自动化网页提交\5.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="京瓷型号表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="594">
   <si>
     <t>序号</t>
   </si>
@@ -1824,6 +1824,10 @@
   </si>
   <si>
     <t>储存温度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品尺寸 (mm)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2759,17 +2763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>583</v>
       </c>
       <c r="P1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -2825,7 +2829,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4080,7 +4084,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5217,7 +5221,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6604,7 +6608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6881,7 +6885,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6931,7 +6935,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7043,7 +7047,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7202,7 +7206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7859,7 +7863,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8118,7 +8122,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8542,7 +8546,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9004,7 +9008,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9107,7 +9111,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9157,7 +9161,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9610,7 +9614,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9772,7 +9776,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9919,7 +9923,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9972,7 +9976,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10041,20 +10045,20 @@
       <selection activeCell="J15" sqref="A1:R136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10166,7 +10170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10275,7 +10279,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10434,7 +10438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10602,7 +10606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10658,7 +10662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10767,7 +10771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11032,7 +11036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11085,7 +11089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11141,7 +11145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11253,7 +11257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11365,7 +11369,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11527,7 +11531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11583,7 +11587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11751,7 +11755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11857,7 +11861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11913,7 +11917,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11969,7 +11973,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12022,7 +12026,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12072,7 +12076,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12128,7 +12132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12290,7 +12294,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12396,7 +12400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12452,7 +12456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12502,7 +12506,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12602,7 +12606,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12658,7 +12662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12714,7 +12718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12826,7 +12830,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12876,7 +12880,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12929,7 +12933,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12979,7 +12983,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13079,7 +13083,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13129,7 +13133,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13291,7 +13295,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13347,7 +13351,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13403,7 +13407,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13459,7 +13463,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13509,7 +13513,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13565,7 +13569,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13621,7 +13625,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13730,7 +13734,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13833,7 +13837,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14001,7 +14005,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14113,7 +14117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14166,7 +14170,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14216,7 +14220,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14272,7 +14276,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14328,7 +14332,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14434,7 +14438,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14487,7 +14491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14543,7 +14547,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14599,7 +14603,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14652,7 +14656,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14702,7 +14706,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14758,7 +14762,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15035,7 +15039,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15091,7 +15095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15144,7 +15148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15250,7 +15254,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15571,7 +15575,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15627,7 +15631,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15677,7 +15681,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15727,7 +15731,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15777,7 +15781,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15827,7 +15831,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15877,7 +15881,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15927,7 +15931,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15977,7 +15981,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16030,7 +16034,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16083,7 +16087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16136,7 +16140,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16186,7 +16190,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16339,7 +16343,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16392,7 +16396,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16442,7 +16446,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16492,7 +16496,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16595,7 +16599,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16648,7 +16652,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16695,7 +16699,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16795,7 +16799,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16845,7 +16849,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16895,7 +16899,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16951,7 +16955,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17007,7 +17011,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17104,7 +17108,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17154,7 +17158,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17204,7 +17208,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17328,13 +17332,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17381,7 +17385,7 @@
         <v>583</v>
       </c>
       <c r="P1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -17390,7 +17394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>102</v>
       </c>
@@ -17446,7 +17450,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>103</v>
       </c>
@@ -17496,7 +17500,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>104</v>
       </c>
@@ -17546,7 +17550,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>105</v>
       </c>
@@ -17596,7 +17600,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>106</v>
       </c>
@@ -17646,7 +17650,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>107</v>
       </c>
@@ -17696,7 +17700,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>108</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>109</v>
       </c>
@@ -17796,7 +17800,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J10" s="3"/>
     </row>
   </sheetData>
@@ -17813,12 +17817,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -17847,7 +17851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -17876,7 +17880,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>2</v>
       </c>
@@ -17899,7 +17903,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>3</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>4</v>
       </c>
@@ -17945,7 +17949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>5</v>
       </c>
@@ -17968,7 +17972,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>6</v>
       </c>
@@ -17991,7 +17995,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>7</v>
       </c>
@@ -18014,7 +18018,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>8</v>
       </c>
@@ -18051,22 +18055,22 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="15" max="15" width="31.21875" customWidth="1"/>
+    <col min="15" max="15" width="31.25" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -18115,7 +18119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>1</v>
@@ -18164,7 +18168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>2</v>
@@ -18210,7 +18214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>3</v>
@@ -18259,7 +18263,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>4</v>
@@ -18305,7 +18309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>5</v>
@@ -18354,7 +18358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>6</v>
@@ -18403,7 +18407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>7</v>
@@ -18452,7 +18456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>8</v>
@@ -18501,7 +18505,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>9</v>
@@ -18550,7 +18554,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>10</v>
@@ -18599,7 +18603,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>11</v>
@@ -18648,7 +18652,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>12</v>
@@ -18697,7 +18701,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>13</v>
@@ -18760,18 +18764,18 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
     <col min="12" max="12" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -18806,7 +18810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -18841,7 +18845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -18873,7 +18877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -18937,7 +18941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -18972,7 +18976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -19004,7 +19008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -19053,17 +19057,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.88671875" customWidth="1"/>
-    <col min="12" max="12" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.875" customWidth="1"/>
+    <col min="12" max="12" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -19095,7 +19099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -19124,7 +19128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -19156,7 +19160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>3</v>
       </c>
@@ -19182,7 +19186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>5</v>
       </c>
@@ -19243,7 +19247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>6</v>
       </c>
@@ -19275,7 +19279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>7</v>
       </c>
@@ -19321,19 +19325,19 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.77734375" customWidth="1"/>
-    <col min="13" max="13" width="51.21875" customWidth="1"/>
-    <col min="14" max="14" width="49.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="29.75" customWidth="1"/>
+    <col min="13" max="13" width="51.25" customWidth="1"/>
+    <col min="14" max="14" width="49.5" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -19372,7 +19376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -19411,7 +19415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -19450,7 +19454,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>3</v>
       </c>
@@ -19489,7 +19493,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -19522,7 +19526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>5</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>6</v>
       </c>
@@ -19600,7 +19604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>7</v>
       </c>
@@ -19633,7 +19637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>8</v>
       </c>
@@ -19672,7 +19676,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -19711,7 +19715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>10</v>
       </c>
@@ -19750,7 +19754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>11</v>
       </c>

--- a/5 改版后自动化网页提交/5.10/京瓷型号表.xlsx
+++ b/5 改版后自动化网页提交/5.10/京瓷型号表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="京瓷型号表" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="高亮度" sheetId="4" r:id="rId5"/>
     <sheet name="3.5" sheetId="6" r:id="rId6"/>
     <sheet name="5.7 320" sheetId="7" r:id="rId7"/>
-    <sheet name="7 LVDS" sheetId="8" r:id="rId8"/>
+    <sheet name="5.7 640" sheetId="10" r:id="rId8"/>
+    <sheet name="7 LVDS" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">京瓷型号表!$A$1:$R$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">修改版!$A$1:$R$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="608">
   <si>
     <t>序号</t>
   </si>
@@ -1828,6 +1830,50 @@
   </si>
   <si>
     <t>产品尺寸 (mm)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG057VGLBA-G00</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG057VGLBA-G00</t>
+  </si>
+  <si>
+    <t>LED, Industrial  </t>
+  </si>
+  <si>
+    <t>High Bright, LED, Industrial  </t>
+  </si>
+  <si>
+    <t>TCG057VGLCS-H50</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG057VGLCS-H50</t>
+  </si>
+  <si>
+    <t>TCG057VGLCA-G00</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG057VGLCA-G00</t>
+  </si>
+  <si>
+    <t>LED, Built-in LED Driver, Industrial  </t>
+  </si>
+  <si>
+    <t>LED, 4-wire resistive TTS, Industrial  </t>
+  </si>
+  <si>
+    <t>18位RGB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>144 (W) x 104.8 (H) x 13 (D)</t>
+  </si>
+  <si>
+    <t>127.2 (W) x 100.4 (H) x 5.7 (D)</t>
+  </si>
+  <si>
+    <t>外观尺寸 (mm)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1835,7 +1881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,6 +2040,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2177,7 +2237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2292,8 +2352,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2420,8 +2495,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2440,8 +2516,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2467,6 +2561,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -2763,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10042,7 +10137,7 @@
   <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:R136"/>
+      <selection activeCell="R25" sqref="B1:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10771,7 +10866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10824,7 +10919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10874,7 +10969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11089,7 +11184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11145,7 +11240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11369,7 +11464,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13242,7 +13337,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14117,7 +14212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15575,7 +15670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15631,7 +15726,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15681,7 +15776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15731,7 +15826,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15781,7 +15876,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15831,7 +15926,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15881,7 +15976,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15931,7 +16026,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17316,9 +17411,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R136">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Automotive TFT"/>
+        <filter val="5.7"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="640X480"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17330,478 +17430,520 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>587</v>
       </c>
       <c r="H1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J1" t="s">
+        <v>578</v>
+      </c>
       <c r="K1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L1" t="s">
-        <v>591</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>581</v>
       </c>
       <c r="O1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P1" t="s">
-        <v>580</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>102</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2">
-        <v>1.8</v>
+        <v>594</v>
+      </c>
+      <c r="C2">
+        <v>5.7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>557</v>
+        <v>604</v>
+      </c>
+      <c r="H2" s="6">
+        <v>250</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>566</v>
       </c>
       <c r="K2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L2" t="s">
-        <v>391</v>
+        <v>596</v>
       </c>
       <c r="M2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N2" t="s">
-        <v>394</v>
+        <v>595</v>
+      </c>
+      <c r="N2">
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>391</v>
-      </c>
-      <c r="P2" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>395</v>
-      </c>
-      <c r="R2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>103</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3">
-        <v>3.5</v>
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>5.7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>800</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K3" t="s">
+        <v>568</v>
+      </c>
+      <c r="L3" t="s">
+        <v>597</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3">
+        <v>145</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>5.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J4" t="s">
+        <v>566</v>
+      </c>
+      <c r="K4" t="s">
+        <v>568</v>
+      </c>
+      <c r="L4" t="s">
+        <v>596</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4">
+        <v>145</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5">
+        <v>5.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H5">
+        <v>800</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K5" t="s">
+        <v>568</v>
+      </c>
+      <c r="L5" t="s">
+        <v>597</v>
+      </c>
+      <c r="M5" t="s">
+        <v>599</v>
+      </c>
+      <c r="N5">
+        <v>210</v>
+      </c>
+      <c r="O5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6">
+        <v>5.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" t="s">
+        <v>568</v>
+      </c>
+      <c r="L6" t="s">
+        <v>596</v>
+      </c>
+      <c r="M6" t="s">
+        <v>601</v>
+      </c>
+      <c r="N6">
+        <v>210</v>
+      </c>
+      <c r="O6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>450</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L7" t="s">
+        <v>602</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>5.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>604</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J8" t="s">
+        <v>566</v>
+      </c>
+      <c r="K8" t="s">
+        <v>568</v>
+      </c>
+      <c r="L8" t="s">
+        <v>603</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8">
+        <v>250.5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>5.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
         <v>500</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="K3" t="s">
-        <v>570</v>
-      </c>
-      <c r="L3" t="s">
-        <v>391</v>
-      </c>
-      <c r="M3" t="s">
-        <v>398</v>
-      </c>
-      <c r="N3" t="s">
-        <v>399</v>
-      </c>
-      <c r="O3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4">
-        <v>4.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>391</v>
-      </c>
-      <c r="I4" t="s">
-        <v>391</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="K4" t="s">
-        <v>570</v>
-      </c>
-      <c r="L4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M4" t="s">
-        <v>393</v>
-      </c>
-      <c r="N4" t="s">
-        <v>402</v>
-      </c>
-      <c r="O4" t="s">
-        <v>391</v>
-      </c>
-      <c r="P4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="K5" t="s">
-        <v>570</v>
-      </c>
-      <c r="L5" t="s">
-        <v>391</v>
-      </c>
-      <c r="M5" t="s">
-        <v>404</v>
-      </c>
-      <c r="N5" t="s">
-        <v>405</v>
-      </c>
-      <c r="O5" t="s">
-        <v>391</v>
-      </c>
-      <c r="P5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6">
+      <c r="I9" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L9" t="s">
+        <v>596</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9">
+        <v>180</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10">
         <v>5.7</v>
       </c>
-      <c r="E6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>391</v>
-      </c>
-      <c r="I6" t="s">
-        <v>391</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="K6" t="s">
-        <v>570</v>
-      </c>
-      <c r="L6" t="s">
-        <v>391</v>
-      </c>
-      <c r="M6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N6" t="s">
-        <v>409</v>
-      </c>
-      <c r="O6" t="s">
-        <v>391</v>
-      </c>
-      <c r="P6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I7" t="s">
-        <v>391</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M7" t="s">
-        <v>411</v>
-      </c>
-      <c r="N7" t="s">
-        <v>412</v>
-      </c>
-      <c r="O7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I8">
-        <v>750</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="K8" t="s">
-        <v>570</v>
-      </c>
-      <c r="L8" t="s">
-        <v>391</v>
-      </c>
-      <c r="M8" t="s">
-        <v>404</v>
-      </c>
-      <c r="N8" t="s">
-        <v>414</v>
-      </c>
-      <c r="O8" t="s">
-        <v>391</v>
-      </c>
-      <c r="P8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>391</v>
-      </c>
-      <c r="G9" t="s">
-        <v>391</v>
-      </c>
-      <c r="H9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L9" t="s">
-        <v>571</v>
-      </c>
-      <c r="M9" t="s">
-        <v>398</v>
-      </c>
-      <c r="N9" t="s">
-        <v>417</v>
-      </c>
-      <c r="O9" t="s">
-        <v>391</v>
-      </c>
-      <c r="P9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J10" s="3"/>
+      <c r="J10" t="s">
+        <v>566</v>
+      </c>
+      <c r="K10" t="s">
+        <v>568</v>
+      </c>
+      <c r="L10" t="s">
+        <v>596</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -19054,7 +19196,7 @@
   <dimension ref="C5:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19318,6 +19460,558 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C13:V40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="15" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H14" s="10">
+        <v>250</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L14" s="9">
+        <v>110</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="9">
+        <v>800</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L15" s="9">
+        <v>145</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H16" s="9">
+        <v>400</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L16" s="9">
+        <v>145</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H17" s="9">
+        <v>800</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L17" s="9">
+        <v>210</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H18" s="9">
+        <v>300</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L18" s="9">
+        <v>210</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="9">
+        <v>450</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L19" s="9">
+        <v>110</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="H20" s="9">
+        <v>400</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L20" s="9">
+        <v>250.5</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="9">
+        <v>500</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L21" s="9">
+        <v>180</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="9">
+        <v>500</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L22" s="9">
+        <v>180</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="M31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="M32" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O16"/>
   <sheetViews>
